--- a/data/xlsx/Relay.xlsx
+++ b/data/xlsx/Relay.xlsx
@@ -841,7 +841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -2333,6 +2333,118 @@
       <c r="H52" t="inlineStr">
         <is>
           <t>V_RelayStamp_49</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tiki_0</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>55</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>GID_チキ</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>120</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_55</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Edelgard_0</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>62</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>190</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_62</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Dimitri_0</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>63</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>200</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_63</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Claude_0</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>64</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GID_クロード</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>210</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_64</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/Relay.xlsx
+++ b/data/xlsx/Relay.xlsx
@@ -841,7 +841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -2368,27 +2368,27 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Edelgard_0</t>
+          <t>Hector_0</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>GID_エーデルガルト</t>
+          <t>GID_ヘクトル</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>V_RelayStamp_62</t>
+          <t>V_RelayStamp_56</t>
         </is>
       </c>
     </row>
@@ -2396,27 +2396,27 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Dimitri_0</t>
+          <t>Senerio_0</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>GID_ディミトリ</t>
+          <t>GID_セネリオ</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>V_RelayStamp_63</t>
+          <t>V_RelayStamp_57</t>
         </is>
       </c>
     </row>
@@ -2424,25 +2424,109 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Claude_0</t>
+          <t>Camilla_0</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
+          <t>GID_カミラ</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>170</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_60</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Edelgard_0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>62</v>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GID_エーデルガルト</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>190</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_62</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dimitri_0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>63</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GID_ディミトリ</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>200</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>V_RelayStamp_63</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Claude_0</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>64</v>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>GID_クロード</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F59" t="n">
         <v>210</v>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>V_RelayStamp_64</t>
         </is>
